--- a/data_train/thong_ke_tan_suat_cau_tra_loi (version 1).xlsb.xlsx
+++ b/data_train/thong_ke_tan_suat_cau_tra_loi (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k\Documents\GitHub\ChatBot\data_train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D66FCA-E11C-40DD-A50F-04788ADE3EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BCD1E1-FA78-4ED9-B4D8-02BA4AC1E203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6459,8 +6459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1619" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="H1646" sqref="H1646"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6643,43 +6643,43 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <f>COUNTIF(C2:C100055,1)</f>
+        <f t="shared" ref="O2:X2" si="0">COUNTIF(C2:C100055,1)</f>
         <v>693</v>
       </c>
       <c r="P2">
-        <f>COUNTIF(D2:D100055,1)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="Q2">
-        <f>COUNTIF(E2:E100055,1)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="R2">
-        <f>COUNTIF(F2:F100055,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S2">
-        <f>COUNTIF(G2:G100055,1)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="T2">
-        <f>COUNTIF(H2:H100055,1)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="U2">
-        <f>COUNTIF(I2:I100055,1)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="V2">
-        <f>COUNTIF(J2:J100055,1)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="W2">
-        <f>COUNTIF(K2:K100055,1)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="X2">
-        <f>COUNTIF(L2:L100055,1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="Z2">
@@ -6757,43 +6757,43 @@
         <v>2</v>
       </c>
       <c r="O3">
-        <f>COUNTIF(C2:C100055,2)</f>
+        <f t="shared" ref="O3:X3" si="1">COUNTIF(C2:C100055,2)</f>
         <v>87</v>
       </c>
       <c r="P3">
-        <f>COUNTIF(D2:D100055,2)</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="Q3">
-        <f>COUNTIF(E2:E100055,2)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="R3">
-        <f>COUNTIF(F2:F100055,2)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S3">
-        <f>COUNTIF(G2:G100055,2)</f>
+        <f t="shared" si="1"/>
         <v>372</v>
       </c>
       <c r="T3">
-        <f>COUNTIF(H2:H100055,2)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="U3">
-        <f>COUNTIF(I2:I100055,2)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="V3">
-        <f>COUNTIF(J2:J100055,2)</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="W3">
-        <f>COUNTIF(K2:K100055,2)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="X3">
-        <f>COUNTIF(L2:L100055,2)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="Z3">
@@ -6871,43 +6871,43 @@
         <v>3</v>
       </c>
       <c r="O4">
-        <f>COUNTIF(C2:C100055,3)</f>
+        <f t="shared" ref="O4:X4" si="2">COUNTIF(C2:C100055,3)</f>
         <v>52</v>
       </c>
       <c r="P4">
-        <f>COUNTIF(D2:D100055,3)</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="Q4">
-        <f>COUNTIF(E2:E100055,3)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="R4">
-        <f>COUNTIF(F2:F100055,3)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S4">
-        <f>COUNTIF(G2:G100055,3)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="T4">
-        <f>COUNTIF(H2:H100055,3)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="U4">
-        <f>COUNTIF(I2:I100055,3)</f>
+        <f t="shared" si="2"/>
         <v>414</v>
       </c>
       <c r="V4">
-        <f>COUNTIF(J2:J100055,3)</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="W4">
-        <f>COUNTIF(K2:K100055,3)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="X4">
-        <f>COUNTIF(L2:L100055,3)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="Z4">
@@ -6985,43 +6985,43 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <f>COUNTIF(C2:C100055,4)</f>
+        <f t="shared" ref="O5:X5" si="3">COUNTIF(C2:C100055,4)</f>
         <v>10</v>
       </c>
       <c r="P5">
-        <f>COUNTIF(D2:D100055,4)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="Q5">
-        <f>COUNTIF(E2:E100055,4)</f>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="R5">
-        <f>COUNTIF(F2:F100055,4)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S5">
-        <f>COUNTIF(G2:G100055,4)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="T5">
-        <f>COUNTIF(H2:H100055,4)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="U5">
-        <f>COUNTIF(I2:I100055,4)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="V5">
-        <f>COUNTIF(J2:J100055,4)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="W5">
-        <f>COUNTIF(K2:K100055,4)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="X5">
-        <f>COUNTIF(L2:L100055,4)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="Z5">
@@ -7099,43 +7099,43 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <f>COUNTIF(C2:C100055,5)</f>
+        <f t="shared" ref="O6:X6" si="4">COUNTIF(C2:C100055,5)</f>
         <v>662</v>
       </c>
       <c r="P6">
-        <f>COUNTIF(D2:D100055,5)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="Q6">
-        <f>COUNTIF(E2:E100055,5)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="R6">
-        <f>COUNTIF(F2:F100055,5)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S6">
-        <f>COUNTIF(G2:G100055,5)</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="T6">
-        <f>COUNTIF(H2:H100055,5)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="U6">
-        <f>COUNTIF(I2:I100055,5)</f>
+        <f t="shared" si="4"/>
         <v>185</v>
       </c>
       <c r="V6">
-        <f>COUNTIF(J2:J100055,5)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="W6">
-        <f>COUNTIF(K2:K100055,5)</f>
+        <f t="shared" si="4"/>
         <v>375</v>
       </c>
       <c r="X6">
-        <f>COUNTIF(L2:L100055,5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z6">
@@ -7210,43 +7210,43 @@
         <v>6</v>
       </c>
       <c r="O7">
-        <f>COUNTIF(C2:C100055,6)</f>
+        <f t="shared" ref="O7:X7" si="5">COUNTIF(C2:C100055,6)</f>
         <v>22</v>
       </c>
       <c r="P7">
-        <f>COUNTIF(D2:D100055,6)</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="Q7">
-        <f>COUNTIF(E2:E100055,6)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="R7">
-        <f>COUNTIF(F2:F100055,6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S7">
-        <f>COUNTIF(G2:G100055,6)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="T7">
-        <f>COUNTIF(H2:H100055,6)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="U7">
-        <f>COUNTIF(I2:I100055,6)</f>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="V7">
-        <f>COUNTIF(J2:J100055,6)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="W7">
-        <f>COUNTIF(K2:K100055,6)</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="X7">
-        <f>COUNTIF(L2:L100055,6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z7">
@@ -7321,43 +7321,43 @@
         <v>7</v>
       </c>
       <c r="O8">
-        <f>COUNTIF(C2:C100055,7)</f>
+        <f t="shared" ref="O8:X8" si="6">COUNTIF(C2:C100055,7)</f>
         <v>33</v>
       </c>
       <c r="P8">
-        <f>COUNTIF(D2:D100055,7)</f>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="Q8">
-        <f>COUNTIF(E2:E100055,7)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="R8">
-        <f>COUNTIF(F2:F100055,7)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>COUNTIF(G2:G100055,7)</f>
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
       <c r="T8">
-        <f>COUNTIF(H2:H100055,7)</f>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="U8">
-        <f>COUNTIF(I2:I100055,7)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>COUNTIF(J2:J100055,7)</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="W8">
-        <f>COUNTIF(K2:K100055,7)</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="X8">
-        <f>COUNTIF(L2:L100055,7)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z8">
@@ -7429,43 +7429,43 @@
         <v>8</v>
       </c>
       <c r="O9">
-        <f>COUNTIF(C2:C100055,8)</f>
+        <f t="shared" ref="O9:X9" si="7">COUNTIF(C2:C100055,8)</f>
         <v>28</v>
       </c>
       <c r="P9">
-        <f>COUNTIF(D2:D100055,8)</f>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="Q9">
-        <f>COUNTIF(E2:E100055,8)</f>
+        <f t="shared" si="7"/>
         <v>384</v>
       </c>
       <c r="R9">
-        <f>COUNTIF(F2:F100055,8)</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="S9">
-        <f>COUNTIF(G2:G100055,8)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>COUNTIF(H2:H100055,8)</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="U9">
-        <f>COUNTIF(I2:I100055,8)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>COUNTIF(J2:J100055,8)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="W9">
-        <f>COUNTIF(K2:K100055,8)</f>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="X9">
-        <f>COUNTIF(L2:L100055,8)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z9">
@@ -7534,43 +7534,43 @@
         <v>9</v>
       </c>
       <c r="O10">
-        <f>COUNTIF(C2:C100055,9)</f>
+        <f t="shared" ref="O10:X10" si="8">COUNTIF(C2:C100055,9)</f>
         <v>2</v>
       </c>
       <c r="P10">
-        <f>COUNTIF(D2:D100055,9)</f>
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="Q10">
-        <f>COUNTIF(E2:E100055,9)</f>
+        <f t="shared" si="8"/>
         <v>222</v>
       </c>
       <c r="R10">
-        <f>COUNTIF(F2:F100055,9)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="S10">
-        <f>COUNTIF(G2:G100055,9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>COUNTIF(H2:H100055,9)</f>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="U10">
-        <f>COUNTIF(I2:I100055,9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>COUNTIF(J2:J100055,9)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="W10">
-        <f>COUNTIF(K2:K100055,9)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="X10">
-        <f>COUNTIF(L2:L100055,9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z10">
@@ -7636,43 +7636,43 @@
         <v>10</v>
       </c>
       <c r="O11">
-        <f>COUNTIF(C2:C100055,10)</f>
+        <f t="shared" ref="O11:X11" si="9">COUNTIF(C2:C100055,10)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>COUNTIF(D2:D100055,10)</f>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="Q11">
-        <f>COUNTIF(E2:E100055,10)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="R11">
-        <f>COUNTIF(F2:F100055,10)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="S11">
-        <f>COUNTIF(G2:G100055,10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>COUNTIF(H2:H100055,10)</f>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="U11">
-        <f>COUNTIF(I2:I100055,10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>COUNTIF(J2:J100055,10)</f>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="W11">
-        <f>COUNTIF(K2:K100055,10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>COUNTIF(L2:L100055,10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z11">
@@ -7735,43 +7735,43 @@
         <v>11</v>
       </c>
       <c r="O12">
-        <f>COUNTIF(C2:C100055,11)</f>
+        <f t="shared" ref="O12:X12" si="10">COUNTIF(C2:C100055,11)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>COUNTIF(D2:D100055,11)</f>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
       <c r="Q12">
-        <f>COUNTIF(E2:E100055,11)</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="R12">
-        <f>COUNTIF(F2:F100055,11)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S12">
-        <f>COUNTIF(G2:G100055,11)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>COUNTIF(H2:H100055,11)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="U12">
-        <f>COUNTIF(I2:I100055,11)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>COUNTIF(J2:J100055,11)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>COUNTIF(K2:K100055,11)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>COUNTIF(L2:L100055,11)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z12">
@@ -7831,43 +7831,43 @@
         <v>12</v>
       </c>
       <c r="O13">
-        <f>COUNTIF(C2:C100055,12)</f>
+        <f t="shared" ref="O13:X13" si="11">COUNTIF(C2:C100055,12)</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>COUNTIF(D2:D100055,12)</f>
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
       <c r="Q13">
-        <f>COUNTIF(E2:E100055,12)</f>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="R13">
-        <f>COUNTIF(F2:F100055,12)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S13">
-        <f>COUNTIF(G2:G100055,12)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>COUNTIF(H2:H100055,12)</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="U13">
-        <f>COUNTIF(I2:I100055,12)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>COUNTIF(J2:J100055,12)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f>COUNTIF(K2:K100055,12)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f>COUNTIF(L2:L100055,12)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z13">
@@ -7927,43 +7927,43 @@
         <v>13</v>
       </c>
       <c r="O14">
-        <f>COUNTIF(C2:C100055,13)</f>
+        <f t="shared" ref="O14:X14" si="12">COUNTIF(C2:C100055,13)</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>COUNTIF(D2:D100055,13)</f>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="Q14">
-        <f>COUNTIF(E2:E100055,13)</f>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="R14">
-        <f>COUNTIF(F2:F100055,13)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>COUNTIF(G2:G100055,13)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>COUNTIF(H2:H100055,13)</f>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="U14">
-        <f>COUNTIF(I2:I100055,13)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>COUNTIF(J2:J100055,13)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>COUNTIF(K2:K100055,13)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>COUNTIF(L2:L100055,13)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z14">
@@ -8023,43 +8023,43 @@
         <v>14</v>
       </c>
       <c r="O15">
-        <f>COUNTIF(C2:C100055,14)</f>
+        <f t="shared" ref="O15:X15" si="13">COUNTIF(C2:C100055,14)</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>COUNTIF(D2:D100055,14)</f>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="Q15">
-        <f>COUNTIF(E2:E100055,14)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="R15">
-        <f>COUNTIF(F2:F100055,14)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S15">
-        <f>COUNTIF(G2:G100055,14)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>COUNTIF(H2:H100055,14)</f>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="U15">
-        <f>COUNTIF(I2:I100055,14)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f>COUNTIF(J2:J100055,14)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f>COUNTIF(K2:K100055,14)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f>COUNTIF(L2:L100055,14)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z15">
@@ -8119,43 +8119,43 @@
         <v>15</v>
       </c>
       <c r="O16">
-        <f>COUNTIF(C2:C100055,15)</f>
+        <f t="shared" ref="O16:X16" si="14">COUNTIF(C2:C100055,15)</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>COUNTIF(D2:D100055,15)</f>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="Q16">
-        <f>COUNTIF(E2:E100055,15)</f>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="R16">
-        <f>COUNTIF(F2:F100055,15)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S16">
-        <f>COUNTIF(G2:G100055,15)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f>COUNTIF(H2:H100055,15)</f>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="U16">
-        <f>COUNTIF(I2:I100055,15)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V16">
-        <f>COUNTIF(J2:J100055,15)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W16">
-        <f>COUNTIF(K2:K100055,15)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X16">
-        <f>COUNTIF(L2:L100055,15)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z16">
@@ -8215,43 +8215,43 @@
         <v>16</v>
       </c>
       <c r="O17">
-        <f>COUNTIF(C2:C100055,16)</f>
+        <f t="shared" ref="O17:X17" si="15">COUNTIF(C2:C100055,16)</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>COUNTIF(D2:D100055,16)</f>
+        <f t="shared" si="15"/>
         <v>112</v>
       </c>
       <c r="Q17">
-        <f>COUNTIF(E2:E100055,16)</f>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="R17">
-        <f>COUNTIF(F2:F100055,16)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="S17">
-        <f>COUNTIF(G2:G100055,16)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f>COUNTIF(H2:H100055,16)</f>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="U17">
-        <f>COUNTIF(I2:I100055,16)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>COUNTIF(J2:J100055,16)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W17">
-        <f>COUNTIF(K2:K100055,16)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X17">
-        <f>COUNTIF(L2:L100055,16)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z17">
@@ -8311,43 +8311,43 @@
         <v>17</v>
       </c>
       <c r="O18">
-        <f>COUNTIF(C2:C100055,17)</f>
+        <f t="shared" ref="O18:X18" si="16">COUNTIF(C2:C100055,17)</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>COUNTIF(D2:D100055,17)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>COUNTIF(E2:E100055,17)</f>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="R18">
-        <f>COUNTIF(F2:F100055,17)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <f>COUNTIF(G2:G100055,17)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>COUNTIF(H2:H100055,17)</f>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="U18">
-        <f>COUNTIF(I2:I100055,17)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V18">
-        <f>COUNTIF(J2:J100055,17)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W18">
-        <f>COUNTIF(K2:K100055,17)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X18">
-        <f>COUNTIF(L2:L100055,17)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z18">
@@ -8404,43 +8404,43 @@
         <v>18</v>
       </c>
       <c r="O19">
-        <f>COUNTIF(C2:C100055,18)</f>
+        <f t="shared" ref="O19:X19" si="17">COUNTIF(C2:C100055,18)</f>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>COUNTIF(D2:D100055,18)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>COUNTIF(E2:E100055,18)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="R19">
-        <f>COUNTIF(F2:F100055,18)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f>COUNTIF(G2:G100055,18)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f>COUNTIF(H2:H100055,18)</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="U19">
-        <f>COUNTIF(I2:I100055,18)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V19">
-        <f>COUNTIF(J2:J100055,18)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>COUNTIF(K2:K100055,18)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X19">
-        <f>COUNTIF(L2:L100055,18)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z19">
@@ -8497,43 +8497,43 @@
         <v>19</v>
       </c>
       <c r="O20">
-        <f>COUNTIF(C2:C100055,19)</f>
+        <f t="shared" ref="O20:X20" si="18">COUNTIF(C2:C100055,19)</f>
         <v>0</v>
       </c>
       <c r="P20">
-        <f>COUNTIF(D2:D100055,19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>COUNTIF(E2:E100055,19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f>COUNTIF(F2:F100055,19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f>COUNTIF(G2:G100055,19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f>COUNTIF(H2:H100055,19)</f>
+        <f t="shared" si="18"/>
         <v>56</v>
       </c>
       <c r="U20">
-        <f>COUNTIF(I2:I100055,19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V20">
-        <f>COUNTIF(J2:J100055,19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W20">
-        <f>COUNTIF(K2:K100055,19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X20">
-        <f>COUNTIF(L2:L100055,19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z20">
@@ -8590,43 +8590,43 @@
         <v>20</v>
       </c>
       <c r="O21">
-        <f>COUNTIF(C2:C100055,20)</f>
+        <f t="shared" ref="O21:X21" si="19">COUNTIF(C2:C100055,20)</f>
         <v>0</v>
       </c>
       <c r="P21">
-        <f>COUNTIF(D2:D100055,20)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f>COUNTIF(E2:E100055,20)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f>COUNTIF(F2:F100055,20)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f>COUNTIF(G2:G100055,20)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T21">
-        <f>COUNTIF(H2:H100055,20)</f>
+        <f t="shared" si="19"/>
         <v>45</v>
       </c>
       <c r="U21">
-        <f>COUNTIF(I2:I100055,20)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V21">
-        <f>COUNTIF(J2:J100055,20)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W21">
-        <f>COUNTIF(K2:K100055,20)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X21">
-        <f>COUNTIF(L2:L100055,20)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z21">
@@ -8677,43 +8677,43 @@
         <v>21</v>
       </c>
       <c r="O22">
-        <f>COUNTIF(C2:C100055,221)</f>
+        <f t="shared" ref="O22:X22" si="20">COUNTIF(C2:C100055,221)</f>
         <v>0</v>
       </c>
       <c r="P22">
-        <f>COUNTIF(D2:D100055,221)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>COUNTIF(E2:E100055,221)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f>COUNTIF(F2:F100055,221)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f>COUNTIF(G2:G100055,221)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f>COUNTIF(H2:H100055,221)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U22">
-        <f>COUNTIF(I2:I100055,221)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V22">
-        <f>COUNTIF(J2:J100055,221)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W22">
-        <f>COUNTIF(K2:K100055,221)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X22">
-        <f>COUNTIF(L2:L100055,221)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z22">
@@ -8764,43 +8764,43 @@
         <v>22</v>
       </c>
       <c r="O23">
-        <f>COUNTIF(C2:C100055,22)</f>
+        <f t="shared" ref="O23:X23" si="21">COUNTIF(C2:C100055,22)</f>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>COUNTIF(D2:D100055,22)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>COUNTIF(E2:E100055,22)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f>COUNTIF(F2:F100055,22)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>COUNTIF(G2:G100055,22)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>COUNTIF(H2:H100055,22)</f>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="U23">
-        <f>COUNTIF(I2:I100055,22)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V23">
-        <f>COUNTIF(J2:J100055,22)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W23">
-        <f>COUNTIF(K2:K100055,22)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X23">
-        <f>COUNTIF(L2:L100055,22)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z23">
@@ -8851,43 +8851,43 @@
         <v>23</v>
       </c>
       <c r="O24">
-        <f>COUNTIF(C2:C100055,23)</f>
+        <f t="shared" ref="O24:X24" si="22">COUNTIF(C2:C100055,23)</f>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>COUNTIF(D2:D100055,23)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>COUNTIF(E2:E100055,23)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f>COUNTIF(F2:F100055,23)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f>COUNTIF(G2:G100055,23)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T24">
-        <f>COUNTIF(H2:H100055,23)</f>
+        <f t="shared" si="22"/>
         <v>57</v>
       </c>
       <c r="U24">
-        <f>COUNTIF(I2:I100055,23)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V24">
-        <f>COUNTIF(J2:J100055,23)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W24">
-        <f>COUNTIF(K2:K100055,23)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X24">
-        <f>COUNTIF(L2:L100055,23)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z24">
@@ -8938,43 +8938,43 @@
         <v>24</v>
       </c>
       <c r="O25">
-        <f>COUNTIF(C2:C100055,24)</f>
+        <f t="shared" ref="O25:X25" si="23">COUNTIF(C2:C100055,24)</f>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>COUNTIF(D2:D100055,24)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>COUNTIF(E2:E100055,24)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>COUNTIF(F2:F100055,24)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f>COUNTIF(G2:G100055,24)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f>COUNTIF(H2:H100055,24)</f>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="U25">
-        <f>COUNTIF(I2:I100055,24)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f>COUNTIF(J2:J100055,24)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W25">
-        <f>COUNTIF(K2:K100055,24)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X25">
-        <f>COUNTIF(L2:L100055,24)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z25">
@@ -9025,43 +9025,43 @@
         <v>25</v>
       </c>
       <c r="O26">
-        <f>COUNTIF(C2:C100055,25)</f>
+        <f t="shared" ref="O26:X26" si="24">COUNTIF(C2:C100055,25)</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>COUNTIF(D2:D100055,25)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>COUNTIF(E2:E100055,25)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f>COUNTIF(F2:F100055,25)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f>COUNTIF(G2:G100055,25)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T26">
-        <f>COUNTIF(H2:H100055,25)</f>
+        <f t="shared" si="24"/>
         <v>32</v>
       </c>
       <c r="U26">
-        <f>COUNTIF(I2:I100055,25)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V26">
-        <f>COUNTIF(J2:J100055,25)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W26">
-        <f>COUNTIF(K2:K100055,25)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X26">
-        <f>COUNTIF(L2:L100055,25)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z26">
@@ -9112,43 +9112,43 @@
         <v>26</v>
       </c>
       <c r="O27">
-        <f>COUNTIF(C2:C100055,26)</f>
+        <f t="shared" ref="O27:X27" si="25">COUNTIF(C2:C100055,26)</f>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>COUNTIF(D2:D100055,26)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>COUNTIF(E2:E100055,26)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>COUNTIF(F2:F100055,26)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>COUNTIF(G2:G100055,26)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T27">
-        <f>COUNTIF(H2:H100055,26)</f>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="U27">
-        <f>COUNTIF(I2:I100055,26)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>COUNTIF(J2:J100055,26)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>COUNTIF(K2:K100055,26)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X27">
-        <f>COUNTIF(L2:L100055,26)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z27">
@@ -9199,43 +9199,43 @@
         <v>27</v>
       </c>
       <c r="O28">
-        <f>COUNTIF(C2:C100055,27)</f>
+        <f t="shared" ref="O28:X28" si="26">COUNTIF(C2:C100055,27)</f>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>COUNTIF(D2:D100055,27)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>COUNTIF(E2:E100055,27)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f>COUNTIF(F2:F100055,27)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f>COUNTIF(G2:G100055,27)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T28">
-        <f>COUNTIF(H2:H100055,27)</f>
+        <f t="shared" si="26"/>
         <v>42</v>
       </c>
       <c r="U28">
-        <f>COUNTIF(I2:I100055,27)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f>COUNTIF(J2:J100055,27)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W28">
-        <f>COUNTIF(K2:K100055,27)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X28">
-        <f>COUNTIF(L2:L100055,27)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z28">
@@ -9286,43 +9286,43 @@
         <v>28</v>
       </c>
       <c r="O29">
-        <f>COUNTIF(C2:C100055,28)</f>
+        <f t="shared" ref="O29:X29" si="27">COUNTIF(C2:C100055,28)</f>
         <v>0</v>
       </c>
       <c r="P29">
-        <f>COUNTIF(D2:D100055,28)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f>COUNTIF(E2:E100055,28)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f>COUNTIF(F2:F100055,28)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f>COUNTIF(G2:G100055,28)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T29">
-        <f>COUNTIF(H2:H100055,28)</f>
+        <f t="shared" si="27"/>
         <v>32</v>
       </c>
       <c r="U29">
-        <f>COUNTIF(I2:I100055,28)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f>COUNTIF(J2:J100055,28)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W29">
-        <f>COUNTIF(K2:K100055,28)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X29">
-        <f>COUNTIF(L2:L100055,28)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z29">
@@ -9373,43 +9373,43 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <f>COUNTIF(C2:C100055,29)</f>
+        <f t="shared" ref="O30:X30" si="28">COUNTIF(C2:C100055,29)</f>
         <v>0</v>
       </c>
       <c r="P30">
-        <f>COUNTIF(D2:D100055,29)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f>COUNTIF(E2:E100055,29)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R30">
-        <f>COUNTIF(F2:F100055,29)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f>COUNTIF(G2:G100055,29)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T30">
-        <f>COUNTIF(H2:H100055,29)</f>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="U30">
-        <f>COUNTIF(I2:I100055,29)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f>COUNTIF(J2:J100055,29)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f>COUNTIF(K2:K100055,29)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X30">
-        <f>COUNTIF(L2:L100055,29)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z30">
@@ -9460,43 +9460,43 @@
         <v>30</v>
       </c>
       <c r="O31">
-        <f>COUNTIF(C2:C100055,30)</f>
+        <f t="shared" ref="O31:X31" si="29">COUNTIF(C2:C100055,30)</f>
         <v>0</v>
       </c>
       <c r="P31">
-        <f>COUNTIF(D2:D100055,30)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f>COUNTIF(E2:E100055,30)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f>COUNTIF(F2:F100055,30)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f>COUNTIF(G2:G100055,30)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f>COUNTIF(H2:H100055,30)</f>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="U31">
-        <f>COUNTIF(I2:I100055,30)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f>COUNTIF(J2:J100055,30)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W31">
-        <f>COUNTIF(K2:K100055,30)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="X31">
-        <f>COUNTIF(L2:L100055,30)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z31">
@@ -9547,43 +9547,43 @@
         <v>31</v>
       </c>
       <c r="O32">
-        <f>COUNTIF(C2:C100055,31)</f>
+        <f t="shared" ref="O32:X32" si="30">COUNTIF(C2:C100055,31)</f>
         <v>0</v>
       </c>
       <c r="P32">
-        <f>COUNTIF(D2:D100055,31)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f>COUNTIF(E2:E100055,31)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f>COUNTIF(F2:F100055,31)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f>COUNTIF(G2:G100055,31)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T32">
-        <f>COUNTIF(H2:H100055,31)</f>
+        <f t="shared" si="30"/>
         <v>58</v>
       </c>
       <c r="U32">
-        <f>COUNTIF(I2:I100055,31)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V32">
-        <f>COUNTIF(J2:J100055,31)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W32">
-        <f>COUNTIF(K2:K100055,31)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X32">
-        <f>COUNTIF(L2:L100055,31)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z32">
@@ -9634,43 +9634,43 @@
         <v>32</v>
       </c>
       <c r="O33">
-        <f>COUNTIF(C2:C100055,32)</f>
+        <f t="shared" ref="O33:X33" si="31">COUNTIF(C2:C100055,32)</f>
         <v>0</v>
       </c>
       <c r="P33">
-        <f>COUNTIF(D2:D100055,32)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f>COUNTIF(E2:E100055,32)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R33">
-        <f>COUNTIF(F2:F100055,32)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f>COUNTIF(G2:G100055,32)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T33">
-        <f>COUNTIF(H2:H100055,32)</f>
+        <f t="shared" si="31"/>
         <v>21</v>
       </c>
       <c r="U33">
-        <f>COUNTIF(I2:I100055,32)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V33">
-        <f>COUNTIF(J2:J100055,32)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W33">
-        <f>COUNTIF(K2:K100055,32)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X33">
-        <f>COUNTIF(L2:L100055,32)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z33">
@@ -9721,43 +9721,43 @@
         <v>33</v>
       </c>
       <c r="O34">
-        <f>COUNTIF(C2:C100055,33)</f>
+        <f t="shared" ref="O34:X34" si="32">COUNTIF(C2:C100055,33)</f>
         <v>0</v>
       </c>
       <c r="P34">
-        <f>COUNTIF(D2:D100055,33)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f>COUNTIF(E2:E100055,33)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f>COUNTIF(F2:F100055,33)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f>COUNTIF(G2:G100055,33)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T34">
-        <f>COUNTIF(H2:H100055,33)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U34">
-        <f>COUNTIF(I2:I100055,33)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f>COUNTIF(J2:J100055,33)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W34">
-        <f>COUNTIF(K2:K100055,33)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X34">
-        <f>COUNTIF(L2:L100055,33)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -10481,6 +10481,9 @@
         <v>0</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
